--- a/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140905_Leak12.xlsx
+++ b/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140905_Leak12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="0" windowWidth="14800" windowHeight="18760" tabRatio="500"/>
+    <workbookView xWindow="17780" yWindow="300" windowWidth="14800" windowHeight="18760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="32">
   <si>
     <t>SampleName</t>
   </si>
@@ -78,28 +78,43 @@
     <t>2014.06.05</t>
   </si>
   <si>
-    <t>AU-Mix1</t>
-  </si>
-  <si>
-    <t>AU-Mix2</t>
-  </si>
-  <si>
-    <t>AU-3N2O</t>
-  </si>
-  <si>
-    <t>AU-3KCO2</t>
-  </si>
-  <si>
-    <t>AU-10N2O</t>
-  </si>
-  <si>
-    <t>AU-amb</t>
-  </si>
-  <si>
     <t>20140905_Leak12</t>
   </si>
   <si>
     <t>2014.09.05</t>
+  </si>
+  <si>
+    <t>Mix1Leak</t>
+  </si>
+  <si>
+    <t>Mix2Leak</t>
+  </si>
+  <si>
+    <t>3N2OLeak</t>
+  </si>
+  <si>
+    <t>10N2OLeak</t>
+  </si>
+  <si>
+    <t>3KCO2Leak</t>
+  </si>
+  <si>
+    <t>AU-Mix1Leak</t>
+  </si>
+  <si>
+    <t>AU-Mix2Leak</t>
+  </si>
+  <si>
+    <t>AU-3N2OLeak</t>
+  </si>
+  <si>
+    <t>AU-10N2OLeak</t>
+  </si>
+  <si>
+    <t>AU-3KCO2Leak</t>
+  </si>
+  <si>
+    <t>AU-ambLeak</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1082,7 +1097,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1094,7 +1109,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1114,7 +1129,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1126,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1146,7 +1161,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1158,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1178,7 +1193,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1190,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1210,7 +1225,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1222,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1242,7 +1257,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1254,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1274,7 +1289,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1286,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1306,7 +1321,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1318,7 +1333,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1338,7 +1353,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1350,7 +1365,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1370,7 +1385,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1382,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1402,7 +1417,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1414,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1434,7 +1449,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1446,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1466,7 +1481,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1478,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1498,7 +1513,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1510,7 +1525,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1530,7 +1545,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1542,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1562,7 +1577,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1594,7 +1609,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1626,7 +1641,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1658,7 +1673,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1690,7 +1705,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1699,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1722,7 +1737,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1731,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1754,7 +1769,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1763,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1786,7 +1801,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1795,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -1818,7 +1833,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1827,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -1850,7 +1865,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1862,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -1882,7 +1897,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1894,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1914,7 +1929,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1926,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -1946,7 +1961,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1958,7 +1973,7 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1978,7 +1993,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1990,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2010,7 +2025,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2022,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -2042,7 +2057,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2054,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -2074,7 +2089,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2086,7 +2101,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -2106,7 +2121,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2118,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2138,7 +2153,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2150,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2170,7 +2185,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2182,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2202,7 +2217,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2214,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2234,7 +2249,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2246,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -2266,7 +2281,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2278,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2298,7 +2313,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -2310,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2330,7 +2345,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2342,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2362,7 +2377,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -2374,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -2394,7 +2409,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -2406,7 +2421,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -2426,7 +2441,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -2438,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
